--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121132a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121132a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.2178502022025978</v>
+      </c>
+      <c r="D5">
+        <v>0.2476403813667471</v>
+      </c>
+      <c r="E5">
+        <v>1.171086691061213</v>
+      </c>
+      <c r="F5">
+        <v>0.3469682700597267</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2178502022025978</v>
+        <v>0.7566330849182503</v>
       </c>
       <c r="D6">
-        <v>0.2476403813667471</v>
+        <v>0.8475583713230216</v>
       </c>
       <c r="E6">
-        <v>1.171086691061213</v>
+        <v>6.153192381262944</v>
       </c>
       <c r="F6">
-        <v>0.3469682700597267</v>
+        <v>1.453318571532247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.7566330849182503</v>
+        <v>0.8361797162057187</v>
       </c>
       <c r="D7">
-        <v>0.8475583713230216</v>
+        <v>0.9508060905986112</v>
       </c>
       <c r="E7">
-        <v>6.153192381262944</v>
+        <v>3.016206709403394</v>
       </c>
       <c r="F7">
-        <v>1.453318571532247</v>
+        <v>1.289670883034535</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.29967099571776</v>
+      </c>
+      <c r="D8">
+        <v>2.473620281614941</v>
+      </c>
+      <c r="E8">
+        <v>8.312391869314427</v>
+      </c>
+      <c r="F8">
+        <v>4.397983394222705</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.8361797162057187</v>
+        <v>2.109865654797748</v>
       </c>
       <c r="D9">
-        <v>0.9508060905986112</v>
+        <v>2.566243881546526</v>
       </c>
       <c r="E9">
-        <v>3.016206709403394</v>
+        <v>13.58438988848833</v>
       </c>
       <c r="F9">
-        <v>1.289670883034535</v>
+        <v>3.538337411906959</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.29967099571776</v>
+        <v>1.614488033139259</v>
       </c>
       <c r="D10">
-        <v>2.473620281614941</v>
+        <v>1.365502473100584</v>
       </c>
       <c r="E10">
-        <v>8.312391869314427</v>
+        <v>6.212815111694221</v>
       </c>
       <c r="F10">
-        <v>4.397983394222705</v>
+        <v>2.318501062616924</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.109865654797748</v>
+        <v>1.963318176443839</v>
       </c>
       <c r="D11">
-        <v>2.566243881546526</v>
+        <v>1.961887780577039</v>
       </c>
       <c r="E11">
-        <v>13.58438988848833</v>
+        <v>9.702554804313912</v>
       </c>
       <c r="F11">
-        <v>3.538337411906959</v>
+        <v>2.870655837754132</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.614488033139259</v>
+        <v>1.45631329240728</v>
       </c>
       <c r="D12">
-        <v>1.365502473100584</v>
+        <v>1.766777238648398</v>
       </c>
       <c r="E12">
-        <v>6.212815111694221</v>
+        <v>4.809866444792279</v>
       </c>
       <c r="F12">
-        <v>2.318501062616924</v>
+        <v>2.124741690753491</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.963318176443839</v>
+        <v>4.664065125588896</v>
       </c>
       <c r="D13">
-        <v>1.961887780577039</v>
+        <v>4.724602640091596</v>
       </c>
       <c r="E13">
-        <v>9.702554804313912</v>
+        <v>10.9106281381377</v>
       </c>
       <c r="F13">
-        <v>2.870655837754132</v>
+        <v>6.099792067105262</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.45631329240728</v>
+        <v>1.066898560315763</v>
       </c>
       <c r="D14">
-        <v>1.766777238648398</v>
+        <v>1.399127547560869</v>
       </c>
       <c r="E14">
-        <v>4.809866444792279</v>
+        <v>8.417350544212654</v>
       </c>
       <c r="F14">
-        <v>2.124741690753491</v>
+        <v>2.237733690055834</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.664065125588896</v>
+        <v>0.532314549704729</v>
       </c>
       <c r="D15">
-        <v>4.724602640091596</v>
+        <v>0.6313887994023938</v>
       </c>
       <c r="E15">
-        <v>10.9106281381377</v>
+        <v>2.518254707549577</v>
       </c>
       <c r="F15">
-        <v>6.099792067105262</v>
+        <v>0.7866102651751258</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.066898560315763</v>
+        <v>2.567336537994125</v>
       </c>
       <c r="D16">
-        <v>1.399127547560869</v>
+        <v>2.649408206122877</v>
       </c>
       <c r="E16">
-        <v>8.417350544212654</v>
+        <v>14.0732884658216</v>
       </c>
       <c r="F16">
-        <v>2.237733690055834</v>
+        <v>3.401128292003455</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.532314549704729</v>
+        <v>1.983225720573265</v>
       </c>
       <c r="D17">
-        <v>0.6313887994023938</v>
+        <v>2.127902892230783</v>
       </c>
       <c r="E17">
-        <v>2.518254707549577</v>
+        <v>10.96557767805409</v>
       </c>
       <c r="F17">
-        <v>0.7866102651751258</v>
+        <v>3.586370996986323</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.567336537994125</v>
+        <v>1.053057783012309</v>
       </c>
       <c r="D18">
-        <v>2.649408206122877</v>
+        <v>1.259147307074495</v>
       </c>
       <c r="E18">
-        <v>14.0732884658216</v>
+        <v>5.155592890548623</v>
       </c>
       <c r="F18">
-        <v>3.401128292003455</v>
+        <v>1.700789690748274</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.983225720573265</v>
+        <v>2.010209640752356</v>
       </c>
       <c r="D19">
-        <v>2.127902892230783</v>
+        <v>2.494605329885876</v>
       </c>
       <c r="E19">
-        <v>10.96557767805409</v>
+        <v>9.957892036512105</v>
       </c>
       <c r="F19">
-        <v>3.586370996986323</v>
+        <v>3.113123549302306</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1.053057783012309</v>
+        <v>1.325665900042476</v>
       </c>
       <c r="D20">
-        <v>1.259147307074495</v>
+        <v>1.398512449739771</v>
       </c>
       <c r="E20">
-        <v>5.155592890548623</v>
+        <v>11.37014726890557</v>
       </c>
       <c r="F20">
-        <v>1.700789690748274</v>
+        <v>1.496000368194587</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.010209640752356</v>
+        <v>1.221115410715637</v>
       </c>
       <c r="D21">
-        <v>2.494605329885876</v>
+        <v>1.891187052006232</v>
       </c>
       <c r="E21">
-        <v>9.957892036512105</v>
+        <v>5.599169539400896</v>
       </c>
       <c r="F21">
-        <v>3.113123549302306</v>
+        <v>1.541103958918227</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1.325665900042476</v>
+        <v>2.460367535144484</v>
       </c>
       <c r="D22">
-        <v>1.398512449739771</v>
+        <v>2.793383581478136</v>
       </c>
       <c r="E22">
-        <v>11.37014726890557</v>
+        <v>9.043383768948916</v>
       </c>
       <c r="F22">
-        <v>1.496000368194587</v>
+        <v>2.763149426302538</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1.221115410715637</v>
+        <v>1.590271547963543</v>
       </c>
       <c r="D23">
-        <v>1.891187052006232</v>
+        <v>1.834548584610524</v>
       </c>
       <c r="E23">
-        <v>5.599169539400896</v>
+        <v>6.328359999630537</v>
       </c>
       <c r="F23">
-        <v>1.541103958918227</v>
+        <v>2.514026183576471</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.460367535144484</v>
+        <v>0.967747361246306</v>
       </c>
       <c r="D24">
-        <v>2.793383581478136</v>
+        <v>1.151263797623593</v>
       </c>
       <c r="E24">
-        <v>9.043383768948916</v>
+        <v>4.075317349476148</v>
       </c>
       <c r="F24">
-        <v>2.763149426302538</v>
+        <v>1.682014018399391</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1.590271547963543</v>
+        <v>0.3017030475395613</v>
       </c>
       <c r="D25">
-        <v>1.834548584610524</v>
+        <v>0.3577196905965891</v>
       </c>
       <c r="E25">
-        <v>6.328359999630537</v>
+        <v>2.006346985185947</v>
       </c>
       <c r="F25">
-        <v>2.514026183576471</v>
+        <v>0.4979210563142111</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0.967747361246306</v>
+        <v>0.5152719941942884</v>
       </c>
       <c r="D26">
-        <v>1.151263797623593</v>
+        <v>0.613311592712778</v>
       </c>
       <c r="E26">
-        <v>4.075317349476148</v>
+        <v>4.04797327651394</v>
       </c>
       <c r="F26">
-        <v>1.682014018399391</v>
+        <v>0.9447364884144206</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0.3017030475395613</v>
+        <v>1.227839787126589</v>
       </c>
       <c r="D27">
-        <v>0.3577196905965891</v>
+        <v>1.674714576032593</v>
       </c>
       <c r="E27">
-        <v>2.006346985185947</v>
+        <v>8.668464560333801</v>
       </c>
       <c r="F27">
-        <v>0.4979210563142111</v>
+        <v>2.258959968394913</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0.5152719941942884</v>
+        <v>0.6470443566951743</v>
       </c>
       <c r="D28">
-        <v>0.613311592712778</v>
+        <v>0.6992322351842043</v>
       </c>
       <c r="E28">
-        <v>4.04797327651394</v>
+        <v>3.459596477014985</v>
       </c>
       <c r="F28">
-        <v>0.9447364884144206</v>
+        <v>0.8789908050203472</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1.227839787126589</v>
+        <v>0.4610852030767358</v>
       </c>
       <c r="D29">
-        <v>1.674714576032593</v>
+        <v>0.5546347650571151</v>
       </c>
       <c r="E29">
-        <v>8.668464560333801</v>
+        <v>2.966980083023875</v>
       </c>
       <c r="F29">
-        <v>2.258959968394913</v>
+        <v>0.7748147122045174</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>0.6470443566951743</v>
+        <v>0.5117056320580214</v>
       </c>
       <c r="D30">
-        <v>0.6992322351842043</v>
+        <v>0.6252237417321698</v>
       </c>
       <c r="E30">
-        <v>3.459596477014985</v>
+        <v>3.315653944434406</v>
       </c>
       <c r="F30">
-        <v>0.8789908050203472</v>
+        <v>0.9727949978176449</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>0.4610852030767358</v>
+        <v>0.7778471803606437</v>
       </c>
       <c r="D31">
-        <v>0.5546347650571151</v>
+        <v>0.8831347554178777</v>
       </c>
       <c r="E31">
-        <v>2.966980083023875</v>
+        <v>4.230727590425688</v>
       </c>
       <c r="F31">
-        <v>0.7748147122045174</v>
+        <v>1.416652792599905</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0.5117056320580214</v>
+        <v>1.361719891347952</v>
       </c>
       <c r="D32">
-        <v>0.6252237417321698</v>
+        <v>1.82936462095441</v>
       </c>
       <c r="E32">
-        <v>3.315653944434406</v>
+        <v>10.9683544496606</v>
       </c>
       <c r="F32">
-        <v>0.9727949978176449</v>
+        <v>2.815586241508928</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>0.7778471803606437</v>
+        <v>0.7089599069338084</v>
       </c>
       <c r="D33">
-        <v>0.8831347554178777</v>
+        <v>0.8097390423371872</v>
       </c>
       <c r="E33">
-        <v>4.230727590425688</v>
+        <v>4.485850611275586</v>
       </c>
       <c r="F33">
-        <v>1.416652792599905</v>
+        <v>1.341154525314473</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.361719891347952</v>
+        <v>0.6781713787781577</v>
       </c>
       <c r="D34">
-        <v>1.82936462095441</v>
+        <v>0.7105557279342635</v>
       </c>
       <c r="E34">
-        <v>10.9683544496606</v>
+        <v>2.917751046014369</v>
       </c>
       <c r="F34">
-        <v>2.815586241508928</v>
+        <v>1.261673925892361</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.7089599069338084</v>
+        <v>1.201692105534061</v>
       </c>
       <c r="D35">
-        <v>0.8097390423371872</v>
+        <v>1.315937965367425</v>
       </c>
       <c r="E35">
-        <v>4.485850611275586</v>
+        <v>6.486344568969299</v>
       </c>
       <c r="F35">
-        <v>1.341154525314473</v>
+        <v>2.239899414558458</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0.6781713787781577</v>
+        <v>1.999041944985257</v>
       </c>
       <c r="D36">
-        <v>0.7105557279342635</v>
+        <v>1.943817137319302</v>
       </c>
       <c r="E36">
-        <v>2.917751046014369</v>
+        <v>8.028664661109739</v>
       </c>
       <c r="F36">
-        <v>1.261673925892361</v>
+        <v>3.78415763866364</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1.201692105534061</v>
+        <v>1.015942045651168</v>
       </c>
       <c r="D37">
-        <v>1.315937965367425</v>
+        <v>1.118397038677357</v>
       </c>
       <c r="E37">
-        <v>6.486344568969299</v>
+        <v>4.788944133135463</v>
       </c>
       <c r="F37">
-        <v>2.239899414558458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1.999041944985257</v>
-      </c>
-      <c r="D38">
-        <v>1.943817137319302</v>
-      </c>
-      <c r="E38">
-        <v>8.028664661109739</v>
-      </c>
-      <c r="F38">
-        <v>3.78415763866364</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>1.015942045651168</v>
-      </c>
-      <c r="D39">
-        <v>1.118397038677357</v>
-      </c>
-      <c r="E39">
-        <v>4.788944133135463</v>
-      </c>
-      <c r="F39">
         <v>1.95211660391316</v>
       </c>
     </row>
